--- a/input/23M2/科技公司_产品中心_工作周报_揭俊娟_202302_v1.0.xlsx
+++ b/input/23M2/科技公司_产品中心_工作周报_揭俊娟_202302_v1.0.xlsx
@@ -40,6 +40,66 @@
     <t/>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>主数据系统（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MDM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <t>PMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>（工作周报、管理月报）</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <t>PMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>运维</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+    <r>
+      <rPr>
         <b val="true"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
@@ -245,51 +305,6 @@
   <si>
     <t/>
     <r>
-      <t>PMO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>（工作周报、管理月报）</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>主数据系统（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>MDM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
       <t>IOT</t>
     </r>
     <r>
@@ -318,21 +333,6 @@
         <family val="2"/>
       </rPr>
       <t>超融合试点</t>
-    </r>
-  </si>
-  <si>
-    <t/>
-    <r>
-      <t>PMO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>运维</t>
     </r>
   </si>
   <si>
@@ -372,36 +372,36 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="61">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
+    <numFmt numFmtId="165" formatCode="0%"/>
+    <numFmt numFmtId="166" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="0%"/>
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="170" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="171" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="172" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="173" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="174" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="175" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="173" formatCode="0%"/>
+    <numFmt numFmtId="174" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="175" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="178" formatCode="0%"/>
+    <numFmt numFmtId="179" formatCode="0%"/>
     <numFmt numFmtId="180" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="181" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="182" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="183" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="184" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="185" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="186" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="187" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="188" formatCode="0%"/>
-    <numFmt numFmtId="189" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="185" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="186" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="187" formatCode="m/d/yy"/>
+    <numFmt numFmtId="188" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="189" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="190" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="191" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="192" formatCode="0%"/>
+    <numFmt numFmtId="191" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="192" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="193" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="194" formatCode="m/d/yy"/>
+    <numFmt numFmtId="194" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="195" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="196" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="197" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -424,8 +424,8 @@
     <numFmt numFmtId="214" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="215" formatCode="@"/>
     <numFmt numFmtId="216" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="217" formatCode="@"/>
-    <numFmt numFmtId="218" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="217" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="218" formatCode="@"/>
     <numFmt numFmtId="219" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="220" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="221" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -440,32 +440,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -513,12 +487,20 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -551,36 +533,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -660,7 +612,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -690,6 +642,54 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -710,18 +710,18 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -734,7 +734,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -894,7 +894,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2DBDB"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF0C0C0C"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0C0C0C"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF08AEE3"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DBDB"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -924,36 +954,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF08AEE3"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0C0C0C"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2DBDB"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2DBDB"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor/>
       </patternFill>
@@ -978,13 +978,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF99CCFF"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -1115,80 +1115,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1230,9 +1157,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1251,63 +1176,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1470,12 +1338,38 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1541,6 +1435,35 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1552,16 +1475,18 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1571,6 +1496,81 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1598,19 +1598,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1645,10 +1632,10 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1658,10 +1645,23 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1898,125 +1898,125 @@
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="2" fillId="3" fontId="2" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="165" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="166" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="6" fillId="2" fontId="6" numFmtId="167" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="3" fontId="7" numFmtId="168" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="4" fontId="8" numFmtId="169" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="9" fillId="5" fontId="9" numFmtId="170" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="10" fillId="6" fontId="10" numFmtId="171" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="172" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="12" fillId="0" fontId="12" numFmtId="173" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="13" fillId="7" fontId="13" numFmtId="174" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="168" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="169" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="170" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="10" fillId="4" fontId="10" numFmtId="171" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="175" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="11" fillId="5" fontId="11" numFmtId="172" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="15" fillId="8" fontId="15" numFmtId="176" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="12" fillId="6" fontId="12" numFmtId="173" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="177" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="17" fillId="0" fontId="17" numFmtId="178" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="13" fillId="0" fontId="13" numFmtId="174" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="18" fillId="0" fontId="18" numFmtId="179" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="19" fillId="9" fontId="19" numFmtId="180" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="20" fillId="0" fontId="20" numFmtId="181" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="14" fillId="7" fontId="14" numFmtId="175" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="176" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="177" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="17" fillId="8" fontId="17" numFmtId="178" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="18" fillId="0" fontId="18" numFmtId="179" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="19" fillId="0" fontId="19" numFmtId="180" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="20" fillId="0" fontId="20" numFmtId="181" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="21" fillId="9" fontId="21" numFmtId="182" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="21" fillId="0" fontId="21" numFmtId="182" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="22" fillId="10" fontId="22" numFmtId="183" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="23" fillId="0" fontId="23" numFmtId="184" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="24" fillId="11" fontId="24" numFmtId="185" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="23" fillId="11" fontId="23" numFmtId="184" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="24" fillId="12" fontId="24" numFmtId="185" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="25" fillId="13" fontId="25" numFmtId="186" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="25" fillId="0" fontId="25" numFmtId="186" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="26" fillId="0" fontId="26" numFmtId="187" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="27" fillId="0" fontId="27" numFmtId="188" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="27" fillId="12" fontId="27" numFmtId="188" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="28" fillId="14" fontId="28" numFmtId="189" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="13" fontId="28" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="29" fillId="0" fontId="29" numFmtId="190" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="30" fillId="15" fontId="30" numFmtId="191" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="29" fillId="0" fontId="29" numFmtId="189" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="31" fillId="0" fontId="31" numFmtId="192" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="30" fillId="0" fontId="30" numFmtId="190" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="16" fontId="32" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="31" fillId="0" fontId="31" numFmtId="191" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="32" fillId="0" fontId="32" numFmtId="192" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="33" fillId="0" fontId="33" numFmtId="193" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="34" fillId="0" fontId="34" numFmtId="194" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="35" fillId="17" fontId="35" numFmtId="195" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="35" fillId="0" fontId="35" numFmtId="195" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="36" fillId="18" fontId="36" numFmtId="196" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="36" fillId="14" fontId="36" numFmtId="196" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="37" fillId="15" fontId="37" numFmtId="197" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="37" fillId="0" fontId="37" numFmtId="197" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="38" fillId="0" fontId="38" numFmtId="198" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="38" fillId="16" fontId="38" numFmtId="198" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="39" fillId="0" fontId="39" numFmtId="199" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="39" fillId="17" fontId="39" numFmtId="199" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="40" fillId="0" fontId="40" numFmtId="200" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="40" fillId="18" fontId="40" numFmtId="200" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="41" fillId="0" fontId="41" numFmtId="201" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2030,16 +2030,16 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="44" fillId="21" fontId="44" numFmtId="204" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="45" fillId="22" fontId="45" numFmtId="205" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="45" fillId="0" fontId="45" numFmtId="205" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="46" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="46" fillId="0" fontId="46" numFmtId="206" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="47" fillId="23" fontId="47" numFmtId="207" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="47" fillId="22" fontId="47" numFmtId="206" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="48" fillId="0" fontId="48" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="48" fillId="23" fontId="48" numFmtId="207" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="49" fillId="0" fontId="49" numFmtId="208" xfId="0">
@@ -2438,211 +2438,211 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="18" r="1">
-      <c r="A1" s="11" t="str">
+      <c r="A1" s="9" t="str">
         <v>月度计划性工作&lt;2023年1月1日-2023年1月31日&gt;</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="1" t="str">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="8" t="str">
         <v>备注</v>
       </c>
     </row>
     <row customHeight="true" ht="31" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="8" t="str">
         <v>任务编号</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="8" t="str">
         <v>任务属性</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="10" t="str">
         <v>项目名称</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="8" t="str">
         <v>当前进度</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="10" t="str">
         <v>任务</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="10" t="str">
         <v>负责人</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="10" t="str">
         <v>干系人</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="10" t="str">
         <v>目标
 完成</v>
       </c>
-      <c r="I2" s="2" t="str">
+      <c r="I2" s="10" t="str">
         <v>实际
 完成情况</v>
       </c>
-      <c r="J2" s="1" t="str">
+      <c r="J2" s="8" t="str">
         <v>第1周</v>
       </c>
-      <c r="K2" s="1" t="str">
+      <c r="K2" s="8" t="str">
         <v>第2周</v>
       </c>
-      <c r="L2" s="1" t="str">
+      <c r="L2" s="8" t="str">
         <v>第3周</v>
       </c>
-      <c r="M2" s="1" t="str">
+      <c r="M2" s="8" t="str">
         <v>第4周</v>
       </c>
-      <c r="N2" s="1" t="str">
+      <c r="N2" s="8" t="str">
         <v>第5周</v>
       </c>
-      <c r="O2" s="1" t="str">
+      <c r="O2" s="8" t="str">
         <v>第6周</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="P2" s="8"/>
     </row>
     <row customHeight="true" ht="121" r="3">
-      <c r="A3" s="6">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="1" t="str">
         <v>运维</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="4" t="str">
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="12" t="str">
         <v>1. 待处理需求澄清沟通：确认收货按钮、日报、权限优化、混凝土运距加收逻辑等
 2. 迭代需求澄清（内部客户退货、日报数据统计等）
 3. 迭代开发阶段 - 产品需求验证
 9. 产品需求调研、产品方案、原型设计</v>
       </c>
-      <c r="K3" s="5" t="str">
+      <c r="K3" s="11" t="str">
         <v>1. 待处理需求澄清沟通、产品需求调研：平安结算通接口调用梳理、市场部2023年系统功能规划讨论等
 2. 迭代需求澄清（内部客户退货、日报数据统计等）
 3. 迭代开发阶段 - 产品需求验证
 5. 迭代发布功能验证
 7. 运营、客户问题跟踪</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="8"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="8"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="8"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="2"/>
     </row>
     <row customHeight="true" ht="15" r="9"/>
     <row customHeight="true" ht="15" r="10"/>
@@ -2703,766 +2703,766 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="18" r="1">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="25" t="str">
         <v>填报日期-周日</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26">
         <v>44962</v>
       </c>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="35">
+      <c r="A2" s="27">
         <f>CONCATENATE("周总结&lt;",TEXT($D$1-6,"yyyy年mm月dd日"),"-",TEXT($D$1,"yyyy年mm月dd日"),"&gt;")</f>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="2" t="str">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="10" t="str">
         <v>项目用时统计
 （小时）</v>
       </c>
-      <c r="S2" s="1" t="str">
+      <c r="S2" s="8" t="str">
         <v>备注</v>
       </c>
     </row>
     <row customHeight="true" ht="31" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="8" t="str">
         <v>任务编号</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="8" t="str">
         <v>code</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="8" t="str">
         <v>任务分类</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="10" t="str">
         <v>项目名称</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="10" t="str">
         <v>当前进度</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="10" t="str">
         <v>负责人</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="10" t="str">
         <v>协助人</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="8" t="str">
         <v>任务/交付件</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="10" t="str">
         <v>目标
 完成</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="10" t="str">
         <v>实际
 完成</v>
       </c>
-      <c r="K3" s="1" t="str">
+      <c r="K3" s="8" t="str">
         <v>星期一</v>
       </c>
-      <c r="L3" s="1" t="str">
+      <c r="L3" s="8" t="str">
         <v>星期二</v>
       </c>
-      <c r="M3" s="1" t="str">
+      <c r="M3" s="8" t="str">
         <v>星期三</v>
       </c>
-      <c r="N3" s="1" t="str">
+      <c r="N3" s="8" t="str">
         <v>星期四</v>
       </c>
-      <c r="O3" s="1" t="str">
+      <c r="O3" s="8" t="str">
         <v>星期五</v>
       </c>
-      <c r="P3" s="1" t="str">
+      <c r="P3" s="8" t="str">
         <v>星期六</v>
       </c>
-      <c r="Q3" s="1" t="str">
+      <c r="Q3" s="8" t="str">
         <v>星期日</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
     </row>
     <row customHeight="true" ht="32" r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3" t="str">
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="29" t="str">
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="16" t="str">
         <v>1. 待处理需求澄清沟通：确认收货按钮、日报、权限优化、混凝土运距加收逻辑等</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="25">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="24">
         <v>4</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="24">
         <v>4</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="24">
         <v>2</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="30">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15">
         <f>SUM(K4:Q4)</f>
       </c>
-      <c r="S4" s="8"/>
+      <c r="S4" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3" t="str">
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="29" t="str">
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="16" t="str">
         <v>2. 迭代需求澄清（内部客户退货、日报数据统计等）</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="25">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="24">
         <v>2</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="24">
         <v>2</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="30">
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15">
         <f>SUM(K5:Q5)</f>
       </c>
-      <c r="S5" s="8"/>
+      <c r="S5" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3" t="str">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="D6" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="29" t="str">
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="16" t="str">
         <v>3. 迭代开发阶段 - 产品需求验证</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="25">
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="24">
         <v>2</v>
       </c>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="30">
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="15">
         <f>SUM(K6:Q6)</f>
       </c>
-      <c r="S6" s="8"/>
+      <c r="S6" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3" t="str">
+      <c r="B7" s="1"/>
+      <c r="C7" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="D7" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="29" t="str">
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="16" t="str">
         <v>4. 迭代开发阶段 - 运营UAT支持</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="30">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="15">
         <f>SUM(K7:Q7)</f>
       </c>
-      <c r="S7" s="8"/>
+      <c r="S7" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3" t="str">
+      <c r="B8" s="1"/>
+      <c r="C8" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D8" s="3" t="str">
+      <c r="D8" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="29" t="str">
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="16" t="str">
         <v>5. 迭代发布功能验证</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="30">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="15">
         <f>SUM(K8:Q8)</f>
       </c>
-      <c r="S8" s="8"/>
+      <c r="S8" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3" t="str">
+      <c r="B9" s="1"/>
+      <c r="C9" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D9" s="3" t="str">
+      <c r="D9" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="29" t="str">
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="16" t="str">
         <v>6. 迭代发布后功能宣贯（运营组）</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="30">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15">
         <f>SUM(K9:Q9)</f>
       </c>
-      <c r="S9" s="8"/>
+      <c r="S9" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3" t="str">
+      <c r="B10" s="1"/>
+      <c r="C10" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D10" s="3" t="str">
+      <c r="D10" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="29" t="str">
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="16" t="str">
         <v>7. 运营、客户问题跟踪（一级订单地址未同步等）</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="25">
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="24">
         <v>1.5</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="24">
         <v>2</v>
       </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="30">
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15">
         <f>SUM(K10:Q10)</f>
       </c>
-      <c r="S10" s="8"/>
+      <c r="S10" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="11">
-      <c r="A11" s="6">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3" t="str">
+      <c r="B11" s="1"/>
+      <c r="C11" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D11" s="3" t="str">
+      <c r="D11" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="29" t="str">
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="16" t="str">
         <v>8. 电商项目工作会议</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="30">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="15">
         <f>SUM(K11:Q11)</f>
       </c>
-      <c r="S11" s="8"/>
+      <c r="S11" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="3" t="str">
+      <c r="B12" s="1"/>
+      <c r="C12" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D12" s="3" t="str">
+      <c r="D12" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="29" t="str">
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="16" t="str">
         <v>9. 产品需求调研、产品方案、原型设计</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="25">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="24">
         <v>4</v>
       </c>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="30">
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15">
         <f>SUM(K12:Q12)</f>
       </c>
-      <c r="S12" s="8"/>
+      <c r="S12" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="30">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15">
         <f>SUM(K13:Q13)</f>
       </c>
-      <c r="S13" s="8"/>
+      <c r="S13" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="14">
-      <c r="A14" s="6">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="30">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="15">
         <f>SUM(K14:Q14)</f>
       </c>
-      <c r="S14" s="8"/>
+      <c r="S14" s="2"/>
     </row>
     <row customHeight="true" ht="26" r="15">
-      <c r="A15" s="6">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="30">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15">
         <f>SUM(K15:Q15)</f>
       </c>
-      <c r="S15" s="8"/>
+      <c r="S15" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="16">
-      <c r="A16" s="32" t="str">
+      <c r="A16" s="28" t="str">
         <v>小计</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="30">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="15">
         <f>SUM(K4:K15)</f>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="15">
         <f>SUM(L4:L15)</f>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="15">
         <f>SUM(M4:M15)</f>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="15">
         <f>SUM(N4:N15)</f>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="15">
         <f>SUM(O4:O15)</f>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="15">
         <f>SUM(P4:P15)</f>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="15">
         <f>SUM(Q4:Q15)</f>
       </c>
-      <c r="R16" s="30">
+      <c r="R16" s="15">
         <f>SUM(R4:R15)</f>
       </c>
-      <c r="S16" s="8"/>
+      <c r="S16" s="2"/>
     </row>
     <row customHeight="true" ht="17" r="17">
-      <c r="A17" s="3" t="str">
+      <c r="A17" s="4" t="str">
         <v>任务完成情况</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="19" t="str">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="29" t="str">
         <v>上午</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="13" t="str">
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="20" t="str">
         <v>09:00 ~ 10:00</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15" t="str">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="23" t="str">
         <v>任务1</v>
       </c>
-      <c r="N17" s="15" t="str">
+      <c r="N17" s="23" t="str">
         <v>任务1</v>
       </c>
-      <c r="O17" s="15" t="str">
+      <c r="O17" s="23" t="str">
         <v>任务9</v>
       </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
     </row>
     <row customHeight="true" ht="17" r="18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="13" t="str">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="20" t="str">
         <v>10:00 ~ 11:00</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
     </row>
     <row customHeight="true" ht="17" r="19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="13" t="str">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="20" t="str">
         <v>11:00 ~ 12:00</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
     </row>
     <row customHeight="true" ht="17" r="20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="13" t="str">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="20" t="str">
         <v>下午</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="str">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20" t="str">
         <v>13:30 ~ 14:30</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="21">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="str">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20" t="str">
         <v>14:30 ~ 15:30</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="15" t="str">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="23" t="str">
         <v>任务2</v>
       </c>
-      <c r="N21" s="15" t="str">
+      <c r="N21" s="23" t="str">
         <v>任务2</v>
       </c>
-      <c r="O21" s="15" t="str">
+      <c r="O21" s="23" t="str">
         <v>任务3</v>
       </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="22">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="str">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20" t="str">
         <v>15:30 ~ 16:30</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="23">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="str">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20" t="str">
         <v>16:30 ~ 17:30</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15" t="str">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="23" t="str">
         <v>任务7</v>
       </c>
-      <c r="N23" s="15" t="str">
+      <c r="N23" s="23" t="str">
         <v>任务7</v>
       </c>
-      <c r="O23" s="15" t="str">
+      <c r="O23" s="23" t="str">
         <v>任务1</v>
       </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
     </row>
     <row customHeight="true" ht="18" r="24">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="22" t="str">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="36" t="str">
         <v>加班</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="24" t="str">
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="38" t="str">
         <v>17:30 ~ 18:30</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="22"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="36"/>
     </row>
     <row customHeight="true" ht="18" r="25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="24" t="str">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="38" t="str">
         <v>18:30 ~ 19:30</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
     </row>
     <row customHeight="true" ht="18" r="26">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="24" t="str">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="38" t="str">
         <v>19:30 ~ 20:30</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3495,17 +3495,17 @@
     <mergeCell ref="O23:O24"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" showErrorMessage="true" sqref="J15" type="list">
+      <formula1>"完成,延迟"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" showErrorMessage="true" sqref="C16:C26" type="list">
       <formula1>"建设,运维,通用"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" showErrorMessage="true" sqref="J15" type="list">
-      <formula1>"完成,延迟"</formula1>
     </dataValidation>
   </dataValidations>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{B6466BEF-5F9A-4291-8E7B-B2F406C8EAFB}">
+        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{C0D9AF2C-5421-42BD-87D4-1EBF14870842}">
           <x14:formula1>
             <xm:f>'附表-2'!$A$1:$E$1</xm:f>
           </x14:formula1>
@@ -3548,782 +3548,782 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="18" r="1">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="25" t="str">
         <v>填报日期-周日</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26">
         <f>'第1周工作计划'!$D$1+7</f>
       </c>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="35">
+      <c r="A2" s="27">
         <f>CONCATENATE("周总结&lt;",TEXT($D$1-6,"yyyy年mm月dd日"),"-",TEXT($D$1,"yyyy年mm月dd日"),"&gt;")</f>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="2" t="str">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="10" t="str">
         <v>项目用时统计
 （小时）</v>
       </c>
-      <c r="S2" s="1" t="str">
+      <c r="S2" s="8" t="str">
         <v>备注</v>
       </c>
     </row>
     <row customHeight="true" ht="31" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="8" t="str">
         <v>任务编号</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="8" t="str">
         <v>code</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="8" t="str">
         <v>任务分类</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="10" t="str">
         <v>项目名称</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="10" t="str">
         <v>当前进度</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="10" t="str">
         <v>负责人</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="10" t="str">
         <v>协助人</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="8" t="str">
         <v>任务/交付件</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="10" t="str">
         <v>目标
 完成</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="10" t="str">
         <v>实际
 完成</v>
       </c>
-      <c r="K3" s="1" t="str">
+      <c r="K3" s="8" t="str">
         <v>星期一</v>
       </c>
-      <c r="L3" s="1" t="str">
+      <c r="L3" s="8" t="str">
         <v>星期二</v>
       </c>
-      <c r="M3" s="1" t="str">
+      <c r="M3" s="8" t="str">
         <v>星期三</v>
       </c>
-      <c r="N3" s="1" t="str">
+      <c r="N3" s="8" t="str">
         <v>星期四</v>
       </c>
-      <c r="O3" s="1" t="str">
+      <c r="O3" s="8" t="str">
         <v>星期五</v>
       </c>
-      <c r="P3" s="1" t="str">
+      <c r="P3" s="8" t="str">
         <v>星期六</v>
       </c>
-      <c r="Q3" s="1" t="str">
+      <c r="Q3" s="8" t="str">
         <v>星期日</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
     </row>
     <row customHeight="true" ht="32" r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3" t="str">
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="29" t="str">
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="16" t="str">
         <v>1. 待处理需求澄清沟通、产品需求调研：平安结算通接口调用梳理、市场部2023年系统功能规划讨论等</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="25">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="24">
         <v>6</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="24">
         <v>6</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="24">
         <v>4</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="24">
         <v>4</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="24">
         <v>5</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="30">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15">
         <f>SUM(K4:Q4)</f>
       </c>
-      <c r="S4" s="8"/>
+      <c r="S4" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3" t="str">
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="29" t="str">
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="16" t="str">
         <v>2. 迭代需求澄清（内部客户退货、日报数据统计等）</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="25">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="24">
         <v>2.5</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="24">
         <v>2</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="24">
         <v>2</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="24">
         <v>2</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="24">
         <v>3</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="30">
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15">
         <f>SUM(K5:Q5)</f>
       </c>
-      <c r="S5" s="8"/>
+      <c r="S5" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3" t="str">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="D6" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="29" t="str">
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="16" t="str">
         <v>3. 迭代开发阶段 - 产品需求验证</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="25">
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="24">
         <v>2</v>
       </c>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="30">
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="15">
         <f>SUM(K6:Q6)</f>
       </c>
-      <c r="S6" s="8"/>
+      <c r="S6" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3" t="str">
+      <c r="B7" s="1"/>
+      <c r="C7" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="D7" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="29" t="str">
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="16" t="str">
         <v>4. 迭代开发阶段 - 运营UAT支持</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="30">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="15">
         <f>SUM(K7:Q7)</f>
       </c>
-      <c r="S7" s="8"/>
+      <c r="S7" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3" t="str">
+      <c r="B8" s="1"/>
+      <c r="C8" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D8" s="3" t="str">
+      <c r="D8" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="29" t="str">
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="16" t="str">
         <v>5. 迭代发布功能验证</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="25">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="24">
         <v>0.5</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="30">
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="15">
         <f>SUM(K8:Q8)</f>
       </c>
-      <c r="S8" s="8"/>
+      <c r="S8" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3" t="str">
+      <c r="B9" s="1"/>
+      <c r="C9" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D9" s="3" t="str">
+      <c r="D9" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="29" t="str">
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="16" t="str">
         <v>6. 迭代发布后功能宣贯（运营组）</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="30">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15">
         <f>SUM(K9:Q9)</f>
       </c>
-      <c r="S9" s="8"/>
+      <c r="S9" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3" t="str">
+      <c r="B10" s="1"/>
+      <c r="C10" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D10" s="3" t="str">
+      <c r="D10" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="29" t="str">
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="16" t="str">
         <v>7. 运营、客户问题跟踪</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="25">
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="24">
         <v>2.5</v>
       </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="30">
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15">
         <f>SUM(K10:Q10)</f>
       </c>
-      <c r="S10" s="8"/>
+      <c r="S10" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="11">
-      <c r="A11" s="6">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3" t="str">
+      <c r="B11" s="1"/>
+      <c r="C11" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D11" s="3" t="str">
+      <c r="D11" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="29" t="str">
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="16" t="str">
         <v>8. 电商项目工作会议</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="30">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="15">
         <f>SUM(K11:Q11)</f>
       </c>
-      <c r="S11" s="8"/>
+      <c r="S11" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="3" t="str">
+      <c r="B12" s="1"/>
+      <c r="C12" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D12" s="3" t="str">
+      <c r="D12" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="29" t="str">
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="16" t="str">
         <v>9. 产品方案、原型设计</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="30">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15">
         <f>SUM(K12:Q12)</f>
       </c>
-      <c r="S12" s="8"/>
+      <c r="S12" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="30">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15">
         <f>SUM(K13:Q13)</f>
       </c>
-      <c r="S13" s="8"/>
+      <c r="S13" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="14">
-      <c r="A14" s="6">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="30">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="15">
         <f>SUM(K14:Q14)</f>
       </c>
-      <c r="S14" s="8"/>
+      <c r="S14" s="2"/>
     </row>
     <row customHeight="true" ht="26" r="15">
-      <c r="A15" s="6">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="30">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15">
         <f>SUM(K15:Q15)</f>
       </c>
-      <c r="S15" s="8"/>
+      <c r="S15" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="16">
-      <c r="A16" s="32" t="str">
+      <c r="A16" s="28" t="str">
         <v>小计</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="30">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="15">
         <f>SUM(K4:K15)</f>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="15">
         <f>SUM(L4:L15)</f>
       </c>
-      <c r="M16" s="30">
+      <c r="M16" s="15">
         <f>SUM(M4:M15)</f>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="15">
         <f>SUM(N4:N15)</f>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="15">
         <f>SUM(O4:O15)</f>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="15">
         <f>SUM(P4:P15)</f>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="15">
         <f>SUM(Q4:Q15)</f>
       </c>
-      <c r="R16" s="30">
+      <c r="R16" s="15">
         <f>SUM(R4:R15)</f>
       </c>
-      <c r="S16" s="8"/>
+      <c r="S16" s="2"/>
     </row>
     <row customHeight="true" ht="17" r="17">
-      <c r="A17" s="3" t="str">
+      <c r="A17" s="4" t="str">
         <v>任务完成情况</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="19" t="str">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="29" t="str">
         <v>上午</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="13" t="str">
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="20" t="str">
         <v>09:00 ~ 10:00</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="8" t="str">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="2" t="str">
         <v>任务1</v>
       </c>
-      <c r="L17" s="8" t="str">
+      <c r="L17" s="2" t="str">
         <v>任务1</v>
       </c>
-      <c r="M17" s="8" t="str">
+      <c r="M17" s="2" t="str">
         <v>任务1</v>
       </c>
-      <c r="N17" s="8" t="str">
+      <c r="N17" s="2" t="str">
         <v>任务1</v>
       </c>
       <c r="O17" s="41" t="str">
         <v>任务1</v>
       </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
     </row>
     <row customHeight="true" ht="17" r="18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="13" t="str">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="20" t="str">
         <v>10:00 ~ 11:00</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" s="41"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
     </row>
     <row customHeight="true" ht="17" r="19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="13" t="str">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="20" t="str">
         <v>11:00 ~ 12:00</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" s="41"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
     </row>
     <row customHeight="true" ht="17" r="20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="13" t="str">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="20" t="str">
         <v>下午</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="str">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20" t="str">
         <v>13:30 ~ 14:30</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" s="41"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="21">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="str">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20" t="str">
         <v>14:30 ~ 15:30</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8" t="str">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2" t="str">
         <v>任务2</v>
       </c>
-      <c r="N21" s="8" t="str">
+      <c r="N21" s="2" t="str">
         <v>任务3</v>
       </c>
       <c r="O21" s="41"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="22">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="str">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20" t="str">
         <v>15:30 ~ 16:30</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" s="41" t="str">
         <v>任务2</v>
       </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="23">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="str">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20" t="str">
         <v>16:30 ~ 17:30</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="8" t="str">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="2" t="str">
         <v>任务2</v>
       </c>
-      <c r="L23" s="8" t="str">
+      <c r="L23" s="2" t="str">
         <v>任务2</v>
       </c>
-      <c r="M23" s="8" t="str">
+      <c r="M23" s="2" t="str">
         <v>任务7</v>
       </c>
-      <c r="N23" s="8" t="str">
+      <c r="N23" s="2" t="str">
         <v>任务2</v>
       </c>
       <c r="O23" s="41"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
     </row>
     <row customHeight="true" ht="18" r="24">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="22" t="str">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="36" t="str">
         <v>加班</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="24" t="str">
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="38" t="str">
         <v>17:30 ~ 18:30</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" s="41"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="22"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="36"/>
     </row>
     <row customHeight="true" ht="18" r="25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="24" t="str">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="38" t="str">
         <v>18:30 ~ 19:30</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="8"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="42" t="str">
         <v>任务5</v>
       </c>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
     </row>
     <row customHeight="true" ht="18" r="26">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="24" t="str">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="38" t="str">
         <v>19:30 ~ 20:30</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
     </row>
     <row customHeight="true" ht="18" r="27"/>
   </sheetData>
@@ -4370,7 +4370,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{16E51496-B5BA-47D9-A2A7-AE46762ABFE1}">
+        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{E86CCD27-6B59-426C-A711-3D1931ED53F7}">
           <x14:formula1>
             <xm:f>'附表-2'!$A$1:$E$1</xm:f>
           </x14:formula1>
@@ -4413,807 +4413,807 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="18" r="1">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="25" t="str">
         <v>填报日期-周日</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26">
         <f>'第2周工作计划'!$D$1+7</f>
       </c>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <f>CONCATENATE("周总结&lt;",TEXT($D$1-6,"yyyy年mm月dd日"),"-",TEXT($D$1,"yyyy年mm月dd日"),"&gt;")</f>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="12"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="7"/>
       <c r="R2" s="43" t="str">
         <v>项目用时统计
 （小时）</v>
       </c>
-      <c r="S2" s="1" t="str">
+      <c r="S2" s="8" t="str">
         <v>备注</v>
       </c>
     </row>
     <row customHeight="true" ht="31" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="8" t="str">
         <v>任务编号</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="8" t="str">
         <v>code</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="8" t="str">
         <v>任务分类</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="10" t="str">
         <v>项目名称</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="10" t="str">
         <v>当前进度</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="10" t="str">
         <v>负责人</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="10" t="str">
         <v>协助人</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="8" t="str">
         <v>任务/交付件</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="10" t="str">
         <v>目标
 完成</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="10" t="str">
         <v>实际
 完成</v>
       </c>
-      <c r="K3" s="1" t="str">
+      <c r="K3" s="8" t="str">
         <v>星期一</v>
       </c>
-      <c r="L3" s="1" t="str">
+      <c r="L3" s="8" t="str">
         <v>星期二</v>
       </c>
-      <c r="M3" s="1" t="str">
+      <c r="M3" s="8" t="str">
         <v>星期三</v>
       </c>
-      <c r="N3" s="1" t="str">
+      <c r="N3" s="8" t="str">
         <v>星期四</v>
       </c>
-      <c r="O3" s="1" t="str">
+      <c r="O3" s="8" t="str">
         <v>星期五</v>
       </c>
-      <c r="P3" s="1" t="str">
+      <c r="P3" s="8" t="str">
         <v>星期六</v>
       </c>
-      <c r="Q3" s="1" t="str">
+      <c r="Q3" s="8" t="str">
         <v>星期日</v>
       </c>
       <c r="R3" s="47"/>
-      <c r="S3" s="1"/>
+      <c r="S3" s="8"/>
     </row>
     <row customHeight="true" ht="32" r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3" t="str">
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="29" t="str">
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="16" t="str">
         <v>1. 待处理需求澄清沟通、产品需求调研：平安结算通接口调用梳理、市场部2023年系统功能规划讨论等</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="25">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="24">
         <v>6</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="24">
         <v>6</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="24">
         <v>6</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="24">
         <v>4</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="24">
         <v>4</v>
       </c>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="30">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15">
         <f>SUM(K4:Q4)</f>
       </c>
-      <c r="S4" s="8"/>
+      <c r="S4" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3" t="str">
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="29" t="str">
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="16" t="str">
         <v>2. 迭代需求澄清（内部客户退货、日报数据统计等）</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="25">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="24">
         <v>2</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="24">
         <v>1.5</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="24">
         <v>2.5</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="24">
         <v>2.5</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="24">
         <v>2</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="30">
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15">
         <f>SUM(K5:Q5)</f>
       </c>
-      <c r="S5" s="8"/>
+      <c r="S5" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3" t="str">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="D6" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="29" t="str">
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="16" t="str">
         <v>3. 迭代开发阶段 - 产品需求验证</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="30">
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="15">
         <f>SUM(K6:Q6)</f>
       </c>
-      <c r="S6" s="8"/>
+      <c r="S6" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3" t="str">
+      <c r="B7" s="1"/>
+      <c r="C7" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="D7" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="29" t="str">
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="16" t="str">
         <v>4. 迭代开发阶段 - 运营UAT支持</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="30">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="15">
         <f>SUM(K7:Q7)</f>
       </c>
-      <c r="S7" s="8"/>
+      <c r="S7" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3" t="str">
+      <c r="B8" s="1"/>
+      <c r="C8" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D8" s="3" t="str">
+      <c r="D8" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="29" t="str">
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="16" t="str">
         <v>5. 迭代发布功能验证</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="30">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="15">
         <f>SUM(K8:Q8)</f>
       </c>
-      <c r="S8" s="8"/>
+      <c r="S8" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3" t="str">
+      <c r="B9" s="1"/>
+      <c r="C9" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D9" s="3" t="str">
+      <c r="D9" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="29" t="str">
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="16" t="str">
         <v>6. 迭代发布后功能宣贯（运营组）</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="30">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15">
         <f>SUM(K9:Q9)</f>
       </c>
-      <c r="S9" s="8"/>
+      <c r="S9" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3" t="str">
+      <c r="B10" s="1"/>
+      <c r="C10" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D10" s="3" t="str">
+      <c r="D10" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="29" t="str">
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="16" t="str">
         <v>7. 运营、客户问题跟踪</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="25">
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="24">
         <v>2</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="24">
         <v>2</v>
       </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="30">
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15">
         <f>SUM(K10:Q10)</f>
       </c>
-      <c r="S10" s="8"/>
+      <c r="S10" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="11">
-      <c r="A11" s="6">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3" t="str">
+      <c r="B11" s="1"/>
+      <c r="C11" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D11" s="3" t="str">
+      <c r="D11" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="29" t="str">
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="16" t="str">
         <v>8. 电商项目工作会议</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="25">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="24">
         <v>1.5</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="30">
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="15">
         <f>SUM(K11:Q11)</f>
       </c>
-      <c r="S11" s="8"/>
+      <c r="S11" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="3" t="str">
+      <c r="B12" s="1"/>
+      <c r="C12" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D12" s="3" t="str">
+      <c r="D12" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="29" t="str">
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="16" t="str">
         <v>9. 产品方案、原型设计</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="30">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15">
         <f>SUM(K12:Q12)</f>
       </c>
-      <c r="S12" s="8"/>
+      <c r="S12" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="30">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15">
         <f>SUM(K13:Q13)</f>
       </c>
-      <c r="S13" s="8"/>
+      <c r="S13" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="14">
-      <c r="A14" s="6">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="30">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="15">
         <f>SUM(K14:Q14)</f>
       </c>
-      <c r="S14" s="8"/>
+      <c r="S14" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="15">
-      <c r="A15" s="6">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="30">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15">
         <f>SUM(K15:Q15)</f>
       </c>
-      <c r="S15" s="8"/>
+      <c r="S15" s="2"/>
     </row>
     <row customHeight="true" ht="26" r="16">
-      <c r="A16" s="6">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="30">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="15">
         <f>SUM(K16:Q16)</f>
       </c>
-      <c r="S16" s="8"/>
+      <c r="S16" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="17">
-      <c r="A17" s="32" t="str">
+      <c r="A17" s="28" t="str">
         <v>小计</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="30">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="15">
         <f>SUM(K4:K16)</f>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="15">
         <f>SUM(L4:L16)</f>
       </c>
-      <c r="M17" s="30">
+      <c r="M17" s="15">
         <f>SUM(M4:M16)</f>
       </c>
-      <c r="N17" s="30">
+      <c r="N17" s="15">
         <f>SUM(N4:N16)</f>
       </c>
-      <c r="O17" s="30">
+      <c r="O17" s="15">
         <f>SUM(O4:O16)</f>
       </c>
-      <c r="P17" s="30">
+      <c r="P17" s="15">
         <f>SUM(P4:P16)</f>
       </c>
-      <c r="Q17" s="30">
+      <c r="Q17" s="15">
         <f>SUM(Q4:Q16)</f>
       </c>
-      <c r="R17" s="30">
+      <c r="R17" s="15">
         <f>SUM(R4:R16)</f>
       </c>
-      <c r="S17" s="8"/>
+      <c r="S17" s="2"/>
     </row>
     <row customHeight="true" ht="17" r="18">
-      <c r="A18" s="3" t="str">
+      <c r="A18" s="4" t="str">
         <v>任务完成情况</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="19" t="str">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="29" t="str">
         <v>上午</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="13" t="str">
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="20" t="str">
         <v>09:00 ~ 10:00</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="8" t="str">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="2" t="str">
         <v>任务1</v>
       </c>
-      <c r="L18" s="8" t="str">
+      <c r="L18" s="2" t="str">
         <v>任务1</v>
       </c>
-      <c r="M18" s="8" t="str">
+      <c r="M18" s="2" t="str">
         <v>任务1</v>
       </c>
-      <c r="N18" s="8" t="str">
+      <c r="N18" s="2" t="str">
         <v>任务1</v>
       </c>
-      <c r="O18" s="8" t="str">
+      <c r="O18" s="2" t="str">
         <v>任务1</v>
       </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
     </row>
     <row customHeight="true" ht="17" r="19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="13" t="str">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="20" t="str">
         <v>10:00 ~ 11:00</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
     </row>
     <row customHeight="true" ht="17" r="20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="13" t="str">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="20" t="str">
         <v>11:00 ~ 12:00</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
     </row>
     <row customHeight="true" ht="17" r="21">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="13" t="str">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="20" t="str">
         <v>下午</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="str">
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20" t="str">
         <v>13:30 ~ 14:30</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="22">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="str">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20" t="str">
         <v>14:30 ~ 15:30</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8" t="str">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="str">
         <v>任务7</v>
       </c>
-      <c r="O22" s="8" t="str">
+      <c r="O22" s="2" t="str">
         <v>任务7</v>
       </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="23">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="str">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20" t="str">
         <v>15:30 ~ 16:30</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="24">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13" t="str">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20" t="str">
         <v>16:30 ~ 17:30</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="3" t="str">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="4" t="str">
         <v>任务2</v>
       </c>
-      <c r="L24" s="48" t="str">
+      <c r="L24" s="46" t="str">
         <v>任务2</v>
       </c>
-      <c r="M24" s="46" t="str">
+      <c r="M24" s="45" t="str">
         <v>任务2</v>
       </c>
       <c r="N24" s="41" t="str">
         <v>任务2</v>
       </c>
-      <c r="O24" s="8" t="str">
+      <c r="O24" s="2" t="str">
         <v>任务2</v>
       </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
     </row>
     <row customHeight="true" ht="18" r="25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="22" t="str">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="36" t="str">
         <v>加班</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="24" t="str">
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="38" t="str">
         <v>17:30 ~ 18:30</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="46"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="41"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="22"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="36"/>
     </row>
     <row customHeight="true" ht="18" r="26">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="24" t="str">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="38" t="str">
         <v>18:30 ~ 19:30</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="21" t="str">
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="37" t="str">
         <v>任务8</v>
       </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="46"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
       <c r="N26" s="41"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
     </row>
     <row customHeight="true" ht="18" r="27">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="24" t="str">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="38" t="str">
         <v>19:30 ~ 20:30</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
     </row>
     <row customHeight="true" ht="18" r="28"/>
   </sheetData>
@@ -5261,7 +5261,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{FD995E04-9109-469B-B0E7-634975C48137}">
+        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{8FE14C75-A24F-45E3-9F42-870195B89876}">
           <x14:formula1>
             <xm:f>'附表-2'!$A$1:$E$1</xm:f>
           </x14:formula1>
@@ -5304,12 +5304,12 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="18" r="1">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="25" t="str">
         <v>填报日期-周日</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26">
         <f>'第3周工作计划'!$D$1+7</f>
       </c>
       <c r="E1" s="49"/>
@@ -5329,679 +5329,679 @@
       <c r="S1" s="49"/>
     </row>
     <row customHeight="true" ht="19" r="2">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <f>CONCATENATE("周总结&lt;",TEXT($D$1-6,"yyyy年mm月dd日"),"-",TEXT($D$1,"yyyy年mm月dd日"),"&gt;")</f>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="12"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="7"/>
       <c r="R2" s="43" t="str">
         <v>项目用时统计
 （小时）</v>
       </c>
-      <c r="S2" s="1" t="str">
+      <c r="S2" s="8" t="str">
         <v>备注</v>
       </c>
     </row>
     <row customHeight="true" ht="31" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="8" t="str">
         <v>任务编号</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="8" t="str">
         <v>code</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="8" t="str">
         <v>任务分类</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="10" t="str">
         <v>项目名称</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="10" t="str">
         <v>当前进度</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="10" t="str">
         <v>负责人</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="10" t="str">
         <v>协助人</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="8" t="str">
         <v>任务/交付件</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="10" t="str">
         <v>目标
 完成</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="10" t="str">
         <v>实际
 完成</v>
       </c>
-      <c r="K3" s="1" t="str">
+      <c r="K3" s="8" t="str">
         <v>星期一</v>
       </c>
-      <c r="L3" s="1" t="str">
+      <c r="L3" s="8" t="str">
         <v>星期二</v>
       </c>
-      <c r="M3" s="1" t="str">
+      <c r="M3" s="8" t="str">
         <v>星期三</v>
       </c>
-      <c r="N3" s="1" t="str">
+      <c r="N3" s="8" t="str">
         <v>星期四</v>
       </c>
-      <c r="O3" s="1" t="str">
+      <c r="O3" s="8" t="str">
         <v>星期五</v>
       </c>
-      <c r="P3" s="1" t="str">
+      <c r="P3" s="8" t="str">
         <v>星期六</v>
       </c>
-      <c r="Q3" s="1" t="str">
+      <c r="Q3" s="8" t="str">
         <v>星期日</v>
       </c>
       <c r="R3" s="47"/>
-      <c r="S3" s="1"/>
+      <c r="S3" s="8"/>
     </row>
     <row customHeight="true" ht="32" r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3" t="str">
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="29" t="str">
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="16" t="str">
         <v>1. 待处理需求澄清沟通、产品需求调研：等</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="25">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="24">
         <v>4</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="24">
         <v>2</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="30">
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15">
         <f>SUM(K4:Q4)</f>
       </c>
-      <c r="S4" s="8"/>
+      <c r="S4" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3" t="str">
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="29" t="str">
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="16" t="str">
         <v>2. 迭代需求澄清（等）</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="25">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="24">
         <v>2</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="24">
         <v>2.5</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="24">
         <v>2.5</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="24">
         <v>2</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="30">
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15">
         <f>SUM(K5:Q5)</f>
       </c>
-      <c r="S5" s="8"/>
+      <c r="S5" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3" t="str">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="D6" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="29" t="str">
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="16" t="str">
         <v>3. 运营、客户问题跟踪</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="25">
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="24">
         <v>2.5</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="30">
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="15">
         <f>SUM(K6:Q6)</f>
       </c>
-      <c r="S6" s="8"/>
+      <c r="S6" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3" t="str">
+      <c r="B7" s="1"/>
+      <c r="C7" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="D7" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="29" t="str">
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="16" t="str">
         <v>4. 电商项目工作会议</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="25">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="24">
         <v>2</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="24">
         <v>1.5</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="30">
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="15">
         <f>SUM(K7:Q7)</f>
       </c>
-      <c r="S7" s="8"/>
+      <c r="S7" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3" t="str">
+      <c r="B8" s="1"/>
+      <c r="C8" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D8" s="3" t="str">
+      <c r="D8" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="29" t="str">
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="16" t="str">
         <v>5. 产品方案、原型设计（平安支付）、页面review、更新</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="25">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="24">
         <v>4</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="24">
         <v>4</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="24">
         <v>6</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="30">
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="15">
         <f>SUM(K8:Q8)</f>
       </c>
-      <c r="S8" s="8"/>
+      <c r="S8" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="str">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="str">
         <v>请假</v>
       </c>
-      <c r="D9" s="8" t="str">
+      <c r="D9" s="2" t="str">
         <v>其他</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="5" t="str">
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="11" t="str">
         <v>6. 休假一天</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="25">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="24">
         <v>7</v>
       </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="30">
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15">
         <f>SUM(K9:Q9)</f>
       </c>
-      <c r="S9" s="8"/>
+      <c r="S9" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="30">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15">
         <f>SUM(K10:Q10)</f>
       </c>
-      <c r="S10" s="8"/>
+      <c r="S10" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="11">
-      <c r="A11" s="6">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="30">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="15">
         <f>SUM(K11:Q11)</f>
       </c>
-      <c r="S11" s="8"/>
+      <c r="S11" s="2"/>
     </row>
     <row customHeight="true" ht="32" r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="30">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15">
         <f>SUM(K12:Q12)</f>
       </c>
-      <c r="S12" s="8"/>
+      <c r="S12" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="13">
-      <c r="A13" s="32" t="str">
+      <c r="A13" s="28" t="str">
         <v>小计</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="30">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="15">
         <f>SUM(K4:K12)</f>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="15">
         <f>SUM(L4:L12)</f>
       </c>
-      <c r="M13" s="30">
+      <c r="M13" s="15">
         <f>SUM(M4:M12)</f>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="15">
         <f>SUM(N4:N12)</f>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="15">
         <f>SUM(O4:O12)</f>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="15">
         <f>SUM(P4:P12)</f>
       </c>
-      <c r="Q13" s="30">
+      <c r="Q13" s="15">
         <f>SUM(Q4:Q12)</f>
       </c>
-      <c r="R13" s="30">
+      <c r="R13" s="15">
         <f>SUM(R4:R12)</f>
       </c>
-      <c r="S13" s="8"/>
+      <c r="S13" s="2"/>
     </row>
     <row customHeight="true" ht="17" r="14">
-      <c r="A14" s="3" t="str">
+      <c r="A14" s="4" t="str">
         <v>任务完成情况</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="19" t="str">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="29" t="str">
         <v>上午</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="13" t="str">
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="20" t="str">
         <v>09:00 ~ 10:00</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="8" t="str">
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="2" t="str">
         <v>任务1</v>
       </c>
-      <c r="L14" s="8" t="str">
+      <c r="L14" s="2" t="str">
         <v>任务1</v>
       </c>
-      <c r="M14" s="8" t="str">
+      <c r="M14" s="2" t="str">
         <v>任务4</v>
       </c>
       <c r="N14" s="41" t="str">
         <v>任务5</v>
       </c>
-      <c r="O14" s="8" t="str">
+      <c r="O14" s="2" t="str">
         <v>任务6</v>
       </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
     </row>
     <row customHeight="true" ht="17" r="15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="13" t="str">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="20" t="str">
         <v>10:00 ~ 11:00</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
       <c r="N15" s="41"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
     </row>
     <row customHeight="true" ht="17" r="16">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="13" t="str">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="20" t="str">
         <v>11:00 ~ 12:00</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8" t="str">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="str">
         <v>任务5</v>
       </c>
-      <c r="M16" s="8" t="str">
+      <c r="M16" s="2" t="str">
         <v>任务5</v>
       </c>
       <c r="N16" s="41"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
     </row>
     <row customHeight="true" ht="17" r="17">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="13" t="str">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="20" t="str">
         <v>下午</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="str">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="str">
         <v>13:30 ~ 14:30</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
       <c r="N17" s="41"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="str">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20" t="str">
         <v>14:30 ~ 15:30</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="3" t="str">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="4" t="str">
         <v>任务2</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
       <c r="N18" s="41"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="str">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20" t="str">
         <v>15:30 ~ 16:30</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
       <c r="N19" s="41"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="str">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20" t="str">
         <v>16:30 ~ 17:30</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="3" t="str">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="4" t="str">
         <v>任务2</v>
       </c>
-      <c r="L20" s="8" t="str">
+      <c r="L20" s="2" t="str">
         <v>任务2</v>
       </c>
-      <c r="M20" s="8" t="str">
+      <c r="M20" s="2" t="str">
         <v>任务2</v>
       </c>
       <c r="N20" s="41" t="str">
         <v>任务2</v>
       </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
     </row>
     <row customHeight="true" ht="18" r="21">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="22" t="str">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="36" t="str">
         <v>加班</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="24" t="str">
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="38" t="str">
         <v>17:30 ~ 18:30</v>
       </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
       <c r="N21" s="41"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="22"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="36"/>
     </row>
     <row customHeight="true" ht="18" r="22">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="24" t="str">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="38" t="str">
         <v>18:30 ~ 19:30</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="21" t="str">
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="37" t="str">
         <v>任务4</v>
       </c>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
     </row>
     <row customHeight="true" ht="18" r="23">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="24" t="str">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="38" t="str">
         <v>19:30 ~ 20:30</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
     </row>
     <row customHeight="true" ht="18" r="24"/>
   </sheetData>
@@ -6046,7 +6046,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{CCB3C0BF-3F00-41B5-A6EF-09A3074DFAB1}">
+        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{858DA107-58B3-455A-879A-62B1BC0EE3A6}">
           <x14:formula1>
             <xm:f>'附表-2'!$A$1:$E$1</xm:f>
           </x14:formula1>
@@ -6089,12 +6089,12 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="18" r="1">
-      <c r="A1" s="33" t="str">
+      <c r="A1" s="25" t="str">
         <v>填报日期-周日</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26">
         <f>'第4周工作计划'!$D$1+7</f>
       </c>
       <c r="E1" s="49"/>
@@ -6114,144 +6114,144 @@
       <c r="S1" s="49"/>
     </row>
     <row customHeight="true" ht="16" r="2">
-      <c r="A2" s="11">
+      <c r="A2" s="9">
         <f>CONCATENATE("周总结&lt;",TEXT($D$1-6,"yyyy年mm月dd日"),"-",TEXT($D$1,"yyyy年mm月dd日"),"&gt;")</f>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="12"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="7"/>
       <c r="R2" s="43" t="str">
         <v>项目用时统计
 （小时）</v>
       </c>
-      <c r="S2" s="1" t="str">
+      <c r="S2" s="8" t="str">
         <v>备注</v>
       </c>
     </row>
     <row customHeight="true" ht="31" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="8" t="str">
         <v>任务编号</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="8" t="str">
         <v>code</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="8" t="str">
         <v>任务分类</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="10" t="str">
         <v>项目名称</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="10" t="str">
         <v>当前进度</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="10" t="str">
         <v>负责人</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="10" t="str">
         <v>协助人</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="8" t="str">
         <v>任务/交付件</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="10" t="str">
         <v>目标
 完成</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="10" t="str">
         <v>实际
 完成</v>
       </c>
-      <c r="K3" s="1" t="str">
+      <c r="K3" s="8" t="str">
         <v>星期一</v>
       </c>
-      <c r="L3" s="1" t="str">
+      <c r="L3" s="8" t="str">
         <v>星期二</v>
       </c>
-      <c r="M3" s="1" t="str">
+      <c r="M3" s="8" t="str">
         <v>星期三</v>
       </c>
-      <c r="N3" s="1" t="str">
+      <c r="N3" s="8" t="str">
         <v>星期四</v>
       </c>
-      <c r="O3" s="1" t="str">
+      <c r="O3" s="8" t="str">
         <v>星期五</v>
       </c>
-      <c r="P3" s="1" t="str">
+      <c r="P3" s="8" t="str">
         <v>星期六</v>
       </c>
-      <c r="Q3" s="1" t="str">
+      <c r="Q3" s="8" t="str">
         <v>星期日</v>
       </c>
       <c r="R3" s="47"/>
-      <c r="S3" s="1"/>
+      <c r="S3" s="8"/>
     </row>
     <row customHeight="true" ht="16" r="4">
-      <c r="A4" s="6">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3" t="str">
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="29" t="str">
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="16" t="str">
         <v>1. 待处理需求澄清沟通、产品需求调研：等</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
       <c r="M4" s="50"/>
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="50"/>
-      <c r="R4" s="30">
+      <c r="R4" s="15">
         <f>SUM(K4:Q4)</f>
       </c>
-      <c r="S4" s="8"/>
+      <c r="S4" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3" t="str">
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="29" t="str">
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="16" t="str">
         <v>2. 迭代需求澄清（等）</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="25">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="24">
         <v>2</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="24">
         <v>3</v>
       </c>
       <c r="M5" s="50"/>
@@ -6259,67 +6259,67 @@
       <c r="O5" s="50"/>
       <c r="P5" s="50"/>
       <c r="Q5" s="50"/>
-      <c r="R5" s="30">
+      <c r="R5" s="15">
         <f>SUM(K5:Q5)</f>
       </c>
-      <c r="S5" s="8"/>
+      <c r="S5" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="6">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3" t="str">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="D6" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="29" t="str">
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="16" t="str">
         <v>3. 运营、客户问题跟踪</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="25">
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="24">
         <v>1</v>
       </c>
-      <c r="L6" s="26"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="50"/>
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
       <c r="P6" s="50"/>
       <c r="Q6" s="50"/>
-      <c r="R6" s="30">
+      <c r="R6" s="15">
         <f>SUM(K6:Q6)</f>
       </c>
-      <c r="S6" s="8"/>
+      <c r="S6" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3" t="str">
+      <c r="B7" s="1"/>
+      <c r="C7" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="D7" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="29" t="str">
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="16" t="str">
         <v>4. 电商项目工作会议</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="25">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="24">
         <v>2</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="24">
         <v>3</v>
       </c>
       <c r="M7" s="50"/>
@@ -6327,312 +6327,312 @@
       <c r="O7" s="50"/>
       <c r="P7" s="50"/>
       <c r="Q7" s="50"/>
-      <c r="R7" s="30">
+      <c r="R7" s="15">
         <f>SUM(K7:Q7)</f>
       </c>
-      <c r="S7" s="8"/>
+      <c r="S7" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="8">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3" t="str">
+      <c r="B8" s="1"/>
+      <c r="C8" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D8" s="3" t="str">
+      <c r="D8" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="29" t="str">
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="16" t="str">
         <v>5. 产品方案、原型设计（平安支付）、页面review、更新</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="25">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="24">
         <v>2.5</v>
       </c>
-      <c r="L8" s="26"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="50"/>
       <c r="N8" s="50"/>
       <c r="O8" s="50"/>
       <c r="P8" s="50"/>
       <c r="Q8" s="50"/>
-      <c r="R8" s="30">
+      <c r="R8" s="15">
         <f>SUM(K8:Q8)</f>
       </c>
-      <c r="S8" s="8"/>
+      <c r="S8" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="9">
-      <c r="A9" s="6">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3" t="str">
+      <c r="B9" s="1"/>
+      <c r="C9" s="4" t="str">
         <v>运维</v>
       </c>
-      <c r="D9" s="3" t="str">
+      <c r="D9" s="4" t="str">
         <v>电商</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="5" t="str">
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="11" t="str">
         <v>6. 产品功能验证</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="25">
-        <v>4</v>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="24">
+        <v>5</v>
       </c>
       <c r="M9" s="50"/>
       <c r="N9" s="50"/>
       <c r="O9" s="50"/>
       <c r="P9" s="50"/>
       <c r="Q9" s="50"/>
-      <c r="R9" s="30">
+      <c r="R9" s="15">
         <f>SUM(K9:Q9)</f>
       </c>
-      <c r="S9" s="8"/>
+      <c r="S9" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="10">
-      <c r="A10" s="6">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="50"/>
       <c r="N10" s="50"/>
       <c r="O10" s="50"/>
       <c r="P10" s="50"/>
       <c r="Q10" s="50"/>
-      <c r="R10" s="30">
+      <c r="R10" s="15">
         <f>SUM(K10:Q10)</f>
       </c>
-      <c r="S10" s="8"/>
+      <c r="S10" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="11">
-      <c r="A11" s="6">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
       <c r="M11" s="50"/>
       <c r="N11" s="50"/>
       <c r="O11" s="50"/>
       <c r="P11" s="50"/>
       <c r="Q11" s="50"/>
-      <c r="R11" s="30">
+      <c r="R11" s="15">
         <f>SUM(K11:Q11)</f>
       </c>
-      <c r="S11" s="8"/>
+      <c r="S11" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="12">
-      <c r="A12" s="6">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="50"/>
       <c r="N12" s="50"/>
       <c r="O12" s="50"/>
       <c r="P12" s="50"/>
       <c r="Q12" s="50"/>
-      <c r="R12" s="30">
+      <c r="R12" s="15">
         <f>SUM(K12:Q12)</f>
       </c>
-      <c r="S12" s="8"/>
+      <c r="S12" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="13">
-      <c r="A13" s="6">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="50"/>
       <c r="N13" s="50"/>
       <c r="O13" s="50"/>
       <c r="P13" s="50"/>
       <c r="Q13" s="50"/>
-      <c r="R13" s="30">
+      <c r="R13" s="15">
         <f>SUM(K13:Q13)</f>
       </c>
-      <c r="S13" s="8"/>
+      <c r="S13" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="14">
-      <c r="A14" s="6">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="50"/>
       <c r="N14" s="50"/>
       <c r="O14" s="50"/>
       <c r="P14" s="50"/>
       <c r="Q14" s="50"/>
-      <c r="R14" s="30">
+      <c r="R14" s="15">
         <f>SUM(K14:Q14)</f>
       </c>
-      <c r="S14" s="8"/>
+      <c r="S14" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="15">
-      <c r="A15" s="6">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="50"/>
       <c r="N15" s="50"/>
       <c r="O15" s="50"/>
       <c r="P15" s="50"/>
       <c r="Q15" s="50"/>
-      <c r="R15" s="30">
+      <c r="R15" s="15">
         <f>SUM(K15:Q15)</f>
       </c>
-      <c r="S15" s="8"/>
+      <c r="S15" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="16">
-      <c r="A16" s="6">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
       <c r="O16" s="50"/>
       <c r="P16" s="50"/>
       <c r="Q16" s="50"/>
-      <c r="R16" s="30">
+      <c r="R16" s="15">
         <f>SUM(K16:Q16)</f>
       </c>
-      <c r="S16" s="8"/>
+      <c r="S16" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="17">
-      <c r="A17" s="32" t="str">
+      <c r="A17" s="28" t="str">
         <v>小计</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="30">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="15">
         <f>SUM(K4:K16)</f>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="15">
         <f>SUM(L4:L16)</f>
       </c>
-      <c r="M17" s="30">
+      <c r="M17" s="15">
         <f>SUM(M4:M16)</f>
       </c>
-      <c r="N17" s="30">
+      <c r="N17" s="15">
         <f>SUM(N4:N16)</f>
       </c>
-      <c r="O17" s="30">
+      <c r="O17" s="15">
         <f>SUM(O4:O16)</f>
       </c>
-      <c r="P17" s="30">
+      <c r="P17" s="15">
         <f>SUM(P4:P16)</f>
       </c>
-      <c r="Q17" s="30">
+      <c r="Q17" s="15">
         <f>SUM(Q4:Q16)</f>
       </c>
-      <c r="R17" s="30">
+      <c r="R17" s="15">
         <f>SUM(R4:R16)</f>
       </c>
-      <c r="S17" s="8"/>
+      <c r="S17" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="18">
-      <c r="A18" s="3" t="str">
+      <c r="A18" s="4" t="str">
         <v>任务完成情况</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="19" t="str">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="29" t="str">
         <v>上午</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="13" t="str">
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="20" t="str">
         <v>09:00 ~ 10:00</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="8" t="str">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="2" t="str">
         <v>任务2</v>
       </c>
-      <c r="L18" s="8" t="str">
+      <c r="L18" s="2" t="str">
         <v>任务2</v>
       </c>
       <c r="M18" s="51"/>
@@ -6640,76 +6640,76 @@
       <c r="O18" s="51"/>
       <c r="P18" s="51"/>
       <c r="Q18" s="51"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="13" t="str">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="20" t="str">
         <v>10:00 ~ 11:00</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="51"/>
       <c r="N19" s="51"/>
       <c r="O19" s="51"/>
       <c r="P19" s="51"/>
       <c r="Q19" s="51"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="13" t="str">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="20" t="str">
         <v>11:00 ~ 12:00</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="8" t="str">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="2" t="str">
         <v>任务3</v>
       </c>
-      <c r="L20" s="8"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
       <c r="O20" s="51"/>
       <c r="P20" s="51"/>
       <c r="Q20" s="51"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="21">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="13" t="str">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="20" t="str">
         <v>下午</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="str">
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20" t="str">
         <v>13:30 ~ 14:30</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="8" t="str">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="2" t="str">
         <v>任务4</v>
       </c>
-      <c r="L21" s="8" t="str">
+      <c r="L21" s="2" t="str">
         <v>任务4</v>
       </c>
       <c r="M21" s="51"/>
@@ -6717,72 +6717,72 @@
       <c r="O21" s="51"/>
       <c r="P21" s="51"/>
       <c r="Q21" s="51"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="22">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="str">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20" t="str">
         <v>14:30 ~ 15:30</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51"/>
       <c r="P22" s="51"/>
       <c r="Q22" s="51"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="23">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="str">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20" t="str">
         <v>15:30 ~ 16:30</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="8" t="str">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="2" t="str">
         <v>任务5</v>
       </c>
-      <c r="L23" s="8"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="51"/>
       <c r="N23" s="51"/>
       <c r="O23" s="51"/>
       <c r="P23" s="51"/>
       <c r="Q23" s="51"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
     </row>
     <row customHeight="true" ht="16" r="24">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13" t="str">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20" t="str">
         <v>16:30 ~ 17:30</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8" t="str">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="str">
         <v>任务6</v>
       </c>
       <c r="M24" s="51"/>
@@ -6790,81 +6790,104 @@
       <c r="O24" s="51"/>
       <c r="P24" s="51"/>
       <c r="Q24" s="51"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
     </row>
     <row customHeight="true" ht="18" r="25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="22" t="str">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="36" t="str">
         <v>加班</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="24" t="str">
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="38" t="str">
         <v>17:30 ~ 18:30</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="22"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="36"/>
     </row>
     <row customHeight="true" ht="18" r="26">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="24" t="str">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="38" t="str">
         <v>18:30 ~ 19:30</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
     </row>
     <row customHeight="true" ht="18" r="27">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="24" t="str">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="38" t="str">
         <v>19:30 ~ 20:30</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-    </row>
-    <row customHeight="true" ht="18" r="28"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+    </row>
+    <row customHeight="true" ht="18" r="28">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="38" t="str">
+        <v>20:30 ~ 21:30</v>
+      </c>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+    </row>
+    <row customHeight="true" ht="18" r="29"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:Q2"/>
@@ -6872,7 +6895,6 @@
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="G25:J25"/>
-    <mergeCell ref="D25:F27"/>
     <mergeCell ref="G24:J24"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="G22:J22"/>
@@ -6882,18 +6904,20 @@
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="D18:F20"/>
-    <mergeCell ref="A18:C27"/>
     <mergeCell ref="A17:J17"/>
-    <mergeCell ref="G27:J27"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K23:K25"/>
     <mergeCell ref="L18:L20"/>
     <mergeCell ref="L21:L23"/>
-    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="D25:F28"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="A18:C28"/>
+    <mergeCell ref="G27:J27"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" showErrorMessage="true" sqref="C17:C28" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" showErrorMessage="true" sqref="C17:C26 C28:C29" type="list">
       <formula1>"建设,运维,通用"</formula1>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" showErrorMessage="true" sqref="J16" type="list">
@@ -6903,7 +6927,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{C9E53FDD-BCF0-49E8-B025-7DB275ACD5D6}">
+        <x14:dataValidation type="list" allowBlank="true" errorStyle="stop" showErrorMessage="true" xr:uid="{675DE232-E2D9-4B61-B770-224BAA9E68C3}">
           <x14:formula1>
             <xm:f>'附表-2'!$A$1:$E$1</xm:f>
           </x14:formula1>
@@ -6934,7 +6958,7 @@
   <sheetData>
     <row customHeight="true" ht="23" r="1">
       <c r="A1" s="61" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -7720,8 +7744,8 @@
     <row customHeight="true" ht="23" r="54">
       <c r="A54" s="52"/>
       <c r="B54" s="52"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="58"/>
       <c r="E54" s="54" t="str">
         <v>048</v>
       </c>
@@ -7859,13 +7883,13 @@
     <row customHeight="true" ht="23" r="63">
       <c r="A63" s="52"/>
       <c r="B63" s="52"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="58"/>
       <c r="E63" s="54" t="str">
         <v>009</v>
       </c>
       <c r="F63" s="55" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G63" s="55">
         <f>$A$7&amp;$C$55&amp;E63</f>
@@ -7892,7 +7916,7 @@
     </row>
     <row customHeight="true" ht="23" r="65">
       <c r="A65" s="52"/>
-      <c r="B65" s="59"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="56" t="str">
         <v>04</v>
       </c>
@@ -8378,8 +8402,8 @@
     <row customHeight="true" ht="23" r="96">
       <c r="A96" s="52"/>
       <c r="B96" s="52"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="59"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="58"/>
       <c r="E96" s="54" t="str">
         <v>013</v>
       </c>
@@ -8457,8 +8481,8 @@
     <row customHeight="true" ht="23" r="101">
       <c r="A101" s="52"/>
       <c r="B101" s="52"/>
-      <c r="C101" s="58"/>
-      <c r="D101" s="59"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="58"/>
       <c r="E101" s="54" t="str">
         <v>005</v>
       </c>
@@ -8506,8 +8530,8 @@
     <row customHeight="true" ht="23" r="104">
       <c r="A104" s="52"/>
       <c r="B104" s="52"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="59"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="58"/>
       <c r="E104" s="54" t="str">
         <v>003</v>
       </c>
@@ -8585,8 +8609,8 @@
     <row customHeight="true" ht="23" r="109">
       <c r="A109" s="52"/>
       <c r="B109" s="52"/>
-      <c r="C109" s="58"/>
-      <c r="D109" s="59"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="58"/>
       <c r="E109" s="54" t="str">
         <v>005</v>
       </c>
@@ -8619,8 +8643,8 @@
     <row customHeight="true" ht="23" r="111">
       <c r="A111" s="52"/>
       <c r="B111" s="52"/>
-      <c r="C111" s="58"/>
-      <c r="D111" s="59"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="58"/>
       <c r="E111" s="54" t="str">
         <v>002</v>
       </c>
@@ -8659,7 +8683,7 @@
         <v>002</v>
       </c>
       <c r="F113" s="55" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G113" s="55">
         <f>$A$66&amp;$C$112&amp;E113</f>
@@ -8773,8 +8797,8 @@
     <row customHeight="true" ht="23" r="121">
       <c r="A121" s="52"/>
       <c r="B121" s="52"/>
-      <c r="C121" s="58"/>
-      <c r="D121" s="59"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="58"/>
       <c r="E121" s="54" t="str">
         <v>010</v>
       </c>
@@ -9006,8 +9030,8 @@
     <row customHeight="true" ht="23" r="136">
       <c r="A136" s="52"/>
       <c r="B136" s="52"/>
-      <c r="C136" s="58"/>
-      <c r="D136" s="59"/>
+      <c r="C136" s="59"/>
+      <c r="D136" s="58"/>
       <c r="E136" s="54" t="str">
         <v>005</v>
       </c>
@@ -9091,7 +9115,7 @@
         <v>005</v>
       </c>
       <c r="F141" s="55" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G141" s="55">
         <f>$A$66&amp;$C$137&amp;E141</f>
@@ -9113,9 +9137,9 @@
       </c>
     </row>
     <row customHeight="true" ht="23" r="143">
-      <c r="A143" s="59"/>
-      <c r="B143" s="59"/>
-      <c r="C143" s="58" t="str">
+      <c r="A143" s="58"/>
+      <c r="B143" s="58"/>
+      <c r="C143" s="59" t="str">
         <v>12</v>
       </c>
       <c r="D143" s="55" t="str">
@@ -9136,7 +9160,7 @@
       <c r="B144" s="52" t="str">
         <v>营销</v>
       </c>
-      <c r="C144" s="58" t="str">
+      <c r="C144" s="59" t="str">
         <v>01</v>
       </c>
       <c r="D144" s="55" t="str">
@@ -10133,7 +10157,7 @@
         <v>石材ERP一期建设项目（石材工厂ERP和石材销售一体化）</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" s="55" t="str">
         <v>营销支持</v>
@@ -10660,7 +10684,7 @@
         <v>----</v>
       </c>
       <c r="B76" s="55" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C76" s="55" t="str">
         <v>营销支持</v>
